--- a/NC_EDUC_Visualization_Data_Processing/data/DataMeaningType.xlsx
+++ b/NC_EDUC_Visualization_Data_Processing/data/DataMeaningType.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahancock\Desktop\SMU\7331 - Data Mining\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevolo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="574">
   <si>
     <t>unit_code</t>
   </si>
@@ -1710,13 +1710,49 @@
   </si>
   <si>
     <t>Devices provided by school</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>School has elementary, middle, and high school grades</t>
+  </si>
+  <si>
+    <t>School has elementary schools grades (PK-5)</t>
+  </si>
+  <si>
+    <t>School has high schools grades (9-13)</t>
+  </si>
+  <si>
+    <t>Schools with elementary, middle and high school grades</t>
+  </si>
+  <si>
+    <t>School has middle schools grades (6-8)</t>
+  </si>
+  <si>
+    <t>School has middle and high school grades</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1736,6 +1772,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1770,7 +1812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1782,6 +1824,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1812,7 +1855,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2124,11 +2167,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C294"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
+      <selection activeCell="A295" sqref="A295:A300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5371,7 +5414,74 @@
         <v>312</v>
       </c>
     </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>562</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="C295" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>569</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="C296" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>570</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="C297" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>572</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C298" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>571</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="C299" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>573</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C300" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>